--- a/src/main/resources/agent.xlsx
+++ b/src/main/resources/agent.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong.pham4_onemount\Desktop\agent-profile-service\agent-profile-service-application\src\test\resources\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\account-service\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC6FE02-28C3-4B13-9C98-98B82757728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import_collaborator_template" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>Mã tổ chức *</t>
   </si>
@@ -229,15 +230,12 @@
   </si>
   <si>
     <t>anv1@vietcombank.com</t>
-  </si>
-  <si>
-    <t>0988235851</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -349,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -366,10 +364,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -717,22 +712,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="20.796875" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -775,9 +770,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" s="9" t="s">
         <v>68</v>
       </c>
@@ -820,7 +813,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -828,17 +821,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -849,16 +842,16 @@
       <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="17"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4">
@@ -869,8 +862,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="4">
         <v>102</v>
       </c>
@@ -879,8 +872,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4">
         <v>103</v>
       </c>
@@ -889,8 +882,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4">
         <v>104</v>
       </c>
@@ -899,8 +892,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="4">
         <v>105</v>
       </c>
@@ -934,23 +927,23 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="16.05" customHeight="1">
+    <row r="10" spans="1:4" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
@@ -960,13 +953,13 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="78">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:4" ht="78.75">
+      <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1016,24 +1009,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="32.69921875" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
-    <col min="5" max="5" width="29.296875" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" customWidth="1"/>
-    <col min="10" max="10" width="21.796875" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="10" max="10" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1061,7 +1054,7 @@
       <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1088,7 +1081,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1221,7 +1214,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1252,29 +1245,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
